--- a/core/assets/temp/Attendance.xlsx
+++ b/core/assets/temp/Attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Documents\School\CYEN122\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Documents\School\CYEN122\CYEN122Project\core\assets\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Nick Harrington</t>
   </si>
@@ -378,19 +378,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B1" sqref="B1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>42450</v>
       </c>
@@ -400,8 +401,11 @@
       <c r="E1" s="1">
         <v>42464</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1">
+        <v>42479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -414,8 +418,11 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -428,8 +435,11 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -442,8 +452,11 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -456,8 +469,11 @@
       <c r="E5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -470,8 +486,11 @@
       <c r="E6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -484,8 +503,11 @@
       <c r="E7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -493,7 +515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -501,7 +523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>

--- a/core/assets/temp/Attendance.xlsx
+++ b/core/assets/temp/Attendance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
   <si>
     <t>Nick Harrington</t>
   </si>
@@ -378,20 +378,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F11"/>
+      <selection sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>42450</v>
       </c>
@@ -404,8 +404,11 @@
       <c r="F1" s="1">
         <v>42479</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1">
+        <v>42487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -421,8 +424,11 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -438,8 +444,11 @@
       <c r="F3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -455,8 +464,11 @@
       <c r="F4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -472,8 +484,11 @@
       <c r="F5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -489,8 +504,11 @@
       <c r="F6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -506,8 +524,11 @@
       <c r="F7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -515,7 +536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -523,7 +544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
